--- a/Planilha de Gastos/src/database.xlsx
+++ b/Planilha de Gastos/src/database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldani\Documents\Estudos\Python\Planilha de Gastos\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB65B95-52B7-4393-8BBF-7ACBFD7732A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3C5A91-2B28-4B25-AA74-C75AB3755FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,42 +20,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
+  <si>
+    <t>Produto</t>
+  </si>
+  <si>
+    <t>Quantia</t>
+  </si>
+  <si>
+    <t>Unidade</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
   <si>
     <t>Data</t>
   </si>
   <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>Categoria</t>
-  </si>
-  <si>
     <t>Preço</t>
   </si>
   <si>
-    <t>Produto</t>
-  </si>
-  <si>
-    <t>Unidade</t>
-  </si>
-  <si>
-    <t>Quantia</t>
-  </si>
-  <si>
-    <t>19/03/2025</t>
+    <t>Papel Aluminio</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Comida</t>
   </si>
   <si>
     <t>Mercado</t>
   </si>
   <si>
-    <t>Comida</t>
-  </si>
-  <si>
-    <t>Chocolate</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>23/03/2025</t>
+  </si>
+  <si>
+    <t>Nata</t>
+  </si>
+  <si>
+    <t>Morango</t>
+  </si>
+  <si>
+    <t>Ovo</t>
+  </si>
+  <si>
+    <t>Chocolate em Pó</t>
+  </si>
+  <si>
+    <t>Mini Biscoito</t>
+  </si>
+  <si>
+    <t>Pasta de Amendoim</t>
+  </si>
+  <si>
+    <t>Leite</t>
+  </si>
+  <si>
+    <t>Cebola</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>Banana Caturra</t>
   </si>
 </sst>
 </file>
@@ -63,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
+    <numFmt numFmtId="7" formatCode="&quot;R$&quot;\ #,##0.00;\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,11 +105,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -95,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -105,43 +150,110 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -236,6 +348,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -270,6 +383,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -293,7 +407,6 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -304,31 +417,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -350,7 +463,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -408,7 +521,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -421,13 +534,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -446,70 +558,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="10.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="15">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="16">
+        <v>25.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="D4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="13">
+        <v>45739</v>
+      </c>
+      <c r="G4" s="15">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>45739</v>
+      </c>
+      <c r="G5" s="17">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>15</v>
       </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="13">
+        <v>45737</v>
+      </c>
+      <c r="G6" s="16">
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <v>45737</v>
+      </c>
+      <c r="G7" s="15">
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="13">
+        <v>45737</v>
+      </c>
+      <c r="G8" s="16">
+        <v>15.29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="13">
+        <v>45719</v>
+      </c>
+      <c r="G9" s="15">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1">
+        <v>45719</v>
+      </c>
+      <c r="G10" s="17">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2.0449999999999999</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="13">
+        <v>45719</v>
+      </c>
+      <c r="G11" s="15">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="19"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Planilha de Gastos/src/database.xlsx
+++ b/Planilha de Gastos/src/database.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldani\Documents\Estudos\Python\Planilha de Gastos\src\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3C5A91-2B28-4B25-AA74-C75AB3755FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -91,12 +85,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="7" formatCode="&quot;R$&quot;\ #,##0.00;\-&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,19 +108,11 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,103 +154,104 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+  <cellXfs count="29">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -278,10 +262,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -319,71 +303,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -411,7 +395,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -434,11 +418,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -447,13 +431,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -463,7 +447,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -472,7 +456,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -481,7 +465,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -489,10 +473,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -557,284 +541,304 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="24" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="25" width="9.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="27" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="9">
         <v>4.58</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="10">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="14">
         <v>25.18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="13">
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8">
         <v>45739</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="9">
         <v>9.99</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="D5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="13">
         <v>45739</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="15">
         <v>25.9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="13">
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="8">
         <v>45737</v>
       </c>
-      <c r="G6" s="16">
-        <v>19.989999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="G6" s="14">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="10">
         <v>1</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="D7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="13">
         <v>45737</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="9">
         <v>10.89</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="10">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="13">
+      <c r="D8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="8">
         <v>45737</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="14">
         <v>15.29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="8">
         <v>45719</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="9">
         <v>9.18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="7">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="16">
+        <v>0.815</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="D10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="13">
         <v>45719</v>
       </c>
-      <c r="G10" s="17">
-        <v>2.0299999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="G10" s="15">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="5">
-        <v>2.0449999999999999</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="17">
+        <v>2.045</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="13">
+      <c r="D11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="8">
         <v>45719</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="9">
         <v>8.16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E13" s="26"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="19"/>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planilha de Gastos/src/database.xlsx
+++ b/Planilha de Gastos/src/database.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldani\Documents\Estudos\Python\Planilha de Gastos\src\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB83225-4898-4618-8F3E-7D1C78CB5D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -85,8 +91,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="7" formatCode="&quot;R$&quot;\ #,##0.00;\-&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,101 +165,80 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -262,10 +249,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -303,71 +290,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -395,7 +382,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -418,11 +405,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -431,13 +418,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -447,7 +434,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -456,7 +443,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -465,7 +452,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -473,10 +460,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -541,26 +528,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="24" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="25" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="27" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,7 +569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -606,7 +592,7 @@
         <v>4.58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -629,7 +615,7 @@
         <v>25.18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
@@ -652,7 +638,7 @@
         <v>9.99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
@@ -675,7 +661,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
@@ -695,10 +681,10 @@
         <v>45737</v>
       </c>
       <c r="G6" s="14">
-        <v>19.99</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -721,7 +707,7 @@
         <v>10.89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
@@ -744,7 +730,7 @@
         <v>15.29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -767,12 +753,12 @@
         <v>9.18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="16">
-        <v>0.815</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>20</v>
@@ -787,15 +773,15 @@
         <v>45719</v>
       </c>
       <c r="G10" s="15">
-        <v>2.03</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="17">
-        <v>2.045</v>
+        <v>2.0449999999999999</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>20</v>
@@ -813,32 +799,12 @@
         <v>8.16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="7"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
